--- a/Data/EC/NIT-9007268702.xlsx
+++ b/Data/EC/NIT-9007268702.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F03CCF6-2E3F-4DE4-AC14-E8DB6110D9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71FA1A4B-6023-4A6A-B72E-2E92F4977326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C75986B7-7213-4F6B-9024-A3D62E05545E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A3E17074-5989-48E0-91B4-3135C1C3AE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,118 +71,118 @@
     <t>VIVIANA PAOLA MESTRA PADILLA</t>
   </si>
   <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -281,7 +281,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -294,9 +296,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -496,23 +496,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,10 +540,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -596,7 +596,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05BB6EB2-61CF-1790-337D-1A727975FBF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C8A0E0-7722-BF1F-09FF-4DAAA2F8BD4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,7 +947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B94AF5-A135-47E7-8015-D53831524405}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002FFD89-87A6-48FE-A52C-B62943836F12}">
   <dimension ref="B2:J59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1125,10 +1125,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1148,10 +1148,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1171,10 +1171,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1194,10 +1194,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1217,10 +1217,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1240,10 +1240,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1263,10 +1263,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1286,10 +1286,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1309,10 +1309,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1332,10 +1332,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1355,10 +1355,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1378,10 +1378,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1401,10 +1401,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1424,10 +1424,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1447,10 +1447,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1470,10 +1470,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1493,10 +1493,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1516,10 +1516,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1539,10 +1539,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1562,10 +1562,10 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1585,10 +1585,10 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1608,10 +1608,10 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1631,10 +1631,10 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1654,10 +1654,10 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1677,10 +1677,10 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1700,10 +1700,10 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1723,10 +1723,10 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1746,10 +1746,10 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1769,10 +1769,10 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1792,10 +1792,10 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1815,10 +1815,10 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1838,10 +1838,10 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1861,10 +1861,10 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1884,10 +1884,10 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1907,10 +1907,10 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1930,10 +1930,10 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1953,10 +1953,10 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1976,10 +1976,10 @@
         <v>48</v>
       </c>
       <c r="F53" s="24">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="24">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>

--- a/Data/EC/NIT-9007268702.xlsx
+++ b/Data/EC/NIT-9007268702.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71FA1A4B-6023-4A6A-B72E-2E92F4977326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{474D2FFE-CFA9-4066-B914-272B175D14A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A3E17074-5989-48E0-91B4-3135C1C3AE6C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4C6537DF-080A-4896-B543-EC9946433466}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -281,9 +281,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -296,7 +294,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -490,29 +490,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,19 +531,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -596,7 +602,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C8A0E0-7722-BF1F-09FF-4DAAA2F8BD4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37183FFB-D4FB-6BFC-3534-E25F2F750800}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,7 +953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002FFD89-87A6-48FE-A52C-B62943836F12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377FDD97-7145-4C0E-A57F-C2DF2F9DCFB3}">
   <dimension ref="B2:J59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -970,49 +976,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1020,7 +1026,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1036,7 +1042,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9007268702</v>
       </c>
@@ -1052,7 +1058,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1154402</v>
       </c>
@@ -1121,18 +1127,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>29509</v>
       </c>
-      <c r="G16" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1144,18 +1150,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>29509</v>
       </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1167,18 +1173,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>29509</v>
       </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1190,18 +1196,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>29509</v>
       </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1213,18 +1219,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>29509</v>
       </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1236,18 +1242,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>29509</v>
       </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1259,18 +1265,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>29509</v>
       </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1282,18 +1288,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>29509</v>
       </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1305,18 +1311,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>29509</v>
       </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1328,18 +1334,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>29509</v>
       </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1351,18 +1357,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>29509</v>
       </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1374,18 +1380,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>29509</v>
       </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1397,18 +1403,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>29509</v>
       </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1420,18 +1426,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>29509</v>
       </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1443,18 +1449,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>29509</v>
       </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1466,18 +1472,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>29509</v>
       </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1489,18 +1495,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>29509</v>
       </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1512,18 +1518,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>29509</v>
       </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1535,18 +1541,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>29509</v>
       </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1558,18 +1564,18 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>31249</v>
       </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1581,18 +1587,18 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>31249</v>
       </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1604,18 +1610,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>31249</v>
       </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1627,18 +1633,18 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>31249</v>
       </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1650,18 +1656,18 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>31249</v>
       </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1673,18 +1679,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>31249</v>
       </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1696,18 +1702,18 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>31249</v>
       </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1719,18 +1725,18 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>31249</v>
       </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1742,18 +1748,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>31249</v>
       </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1765,18 +1771,18 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>31249</v>
       </c>
-      <c r="G44" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="G44" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1788,18 +1794,18 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>31249</v>
       </c>
-      <c r="G45" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="G45" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1811,18 +1817,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>31249</v>
       </c>
-      <c r="G46" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="G46" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1834,18 +1840,18 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>31249</v>
       </c>
-      <c r="G47" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="G47" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1857,18 +1863,18 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>31249</v>
       </c>
-      <c r="G48" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="G48" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1880,18 +1886,18 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>31249</v>
       </c>
-      <c r="G49" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="G49" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1903,18 +1909,18 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="19">
         <v>31249</v>
       </c>
-      <c r="G50" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="G50" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1926,18 +1932,18 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>31249</v>
       </c>
-      <c r="G51" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="G51" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -1949,47 +1955,47 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>31249</v>
       </c>
-      <c r="G52" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="G52" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="22" t="s">
+      <c r="B53" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F53" s="26">
         <v>31249</v>
       </c>
-      <c r="G53" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="26"/>
+      <c r="G53" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="28"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="32"/>
+      <c r="C58" s="34"/>
       <c r="H58" s="1" t="s">
         <v>58</v>
       </c>
@@ -1997,10 +2003,10 @@
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="32"/>
+      <c r="C59" s="34"/>
       <c r="H59" s="1" t="s">
         <v>59</v>
       </c>
